--- a/biology/Botanique/Flore_endémique_de_Rodrigues/Flore_endémique_de_Rodrigues.xlsx
+++ b/biology/Botanique/Flore_endémique_de_Rodrigues/Flore_endémique_de_Rodrigues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_Rodrigues</t>
+          <t>Flore_endémique_de_Rodrigues</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente une liste des espèces végétales endémiques de Rodrigues, dont les noms scientifiques sont classés selon l'ordre alphabétique.
 Attention, cette liste n'est pas exhaustive et demande à être complétée.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_Rodrigues</t>
+          <t>Flore_endémique_de_Rodrigues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Badula balfouriana - Bois papaye.</t>
         </is>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_Rodrigues</t>
+          <t>Flore_endémique_de_Rodrigues</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Clerodendrum laciniatum - Bois cabri.
 Cynanchum guehoi</t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_Rodrigues</t>
+          <t>Flore_endémique_de_Rodrigues</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Eugenia rodriguesensis - Bois fer.</t>
         </is>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_Rodrigues</t>
+          <t>Flore_endémique_de_Rodrigues</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,7 +621,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gastonia rodriguesiana - Bois blanc.
 Gouania leguatii.</t>
@@ -616,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_Rodrigues</t>
+          <t>Flore_endémique_de_Rodrigues</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -634,7 +654,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Hibiscus liliiflorus - Augerine.
 Hyophorbe verschaffeltii - Palmiste marron</t>
@@ -647,7 +669,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_Rodrigues</t>
+          <t>Flore_endémique_de_Rodrigues</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -665,7 +687,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Latania verschaffeltii - Latanier jaune.
 Lomatophyllum lomatophylloides - Ananas marron.</t>
@@ -678,7 +702,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_Rodrigues</t>
+          <t>Flore_endémique_de_Rodrigues</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -696,7 +720,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Mathurina penduliflora - Bois Gandine.</t>
         </is>
@@ -708,7 +734,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_Rodrigues</t>
+          <t>Flore_endémique_de_Rodrigues</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -726,7 +752,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Pandanus heterocarpus - Vacoa parasol,
 Pittosporum balfourii - Bois bécasse,
@@ -740,7 +768,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_Rodrigues</t>
+          <t>Flore_endémique_de_Rodrigues</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -758,7 +786,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Ramosmania heterophylla - Café marron.</t>
         </is>
@@ -770,7 +800,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_Rodrigues</t>
+          <t>Flore_endémique_de_Rodrigues</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -788,7 +818,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Sarcostemma cf. odontolepis - Liane calé.
 Scyphochlamys revoluta - Bois mangue.</t>
@@ -801,7 +833,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_Rodrigues</t>
+          <t>Flore_endémique_de_Rodrigues</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -819,7 +851,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Turraea laciniosa (Turraea laciniata) - Bois balai</t>
         </is>
@@ -831,7 +865,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_Rodrigues</t>
+          <t>Flore_endémique_de_Rodrigues</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -849,7 +883,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Zanthoxylum paniculatum - Bois pasner.</t>
         </is>
@@ -861,7 +897,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_Rodrigues</t>
+          <t>Flore_endémique_de_Rodrigues</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -879,7 +915,9 @@
           <t>Informations complémentaires</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Endémisme dans les Mascareignes.
  Portail de la botanique   Portail de Maurice                    </t>
